--- a/group_5_review_notes.xlsx
+++ b/group_5_review_notes.xlsx
@@ -1,35 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rough\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RAFEE\Documents\GitHub\Project-350\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2F0E39B-057E-4E33-A4DB-698828ECC23D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E2DA3DC-D216-4543-AF4B-A174C6CBEEF4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="862" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="mail-to" sheetId="2" r:id="rId1"/>
-    <sheet name="resources" sheetId="3" r:id="rId2"/>
-    <sheet name="Figures" sheetId="4" r:id="rId3"/>
-    <sheet name="Tables" sheetId="6" r:id="rId4"/>
-    <sheet name="Tips" sheetId="7" r:id="rId5"/>
+    <sheet name="review_papers" sheetId="3" r:id="rId1"/>
+    <sheet name="Figures" sheetId="4" r:id="rId2"/>
+    <sheet name="Tables" sheetId="6" r:id="rId3"/>
+    <sheet name="Tips" sheetId="7" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="57">
   <si>
     <t>revsim007</t>
   </si>
@@ -68,24 +73,160 @@
   </si>
   <si>
     <t>table 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+broader area like blog, fb, tweeter etc.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+addressed issue/ research gap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+proposed approach</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+used classical techniques</t>
+  </si>
+  <si>
+    <t>used dataset, self-made or standard (if standard- name please)</t>
+  </si>
+  <si>
+    <t>special ability authors claim</t>
+  </si>
+  <si>
+    <t>paperid</t>
+  </si>
+  <si>
+    <t>1-Context</t>
+  </si>
+  <si>
+    <t>2-Challenge</t>
+  </si>
+  <si>
+    <t>3-approach</t>
+  </si>
+  <si>
+    <t>4-methods</t>
+  </si>
+  <si>
+    <t>5-dataset</t>
+  </si>
+  <si>
+    <t>6-ability</t>
+  </si>
+  <si>
+    <t>obj0013</t>
+  </si>
+  <si>
+    <t>Performance Evaluation of Object Detection Algorithms</t>
+  </si>
+  <si>
+    <t>Continuous development of object detection algorithms is ushering in the need for evaluation tools to quantify algorithm performance.</t>
+  </si>
+  <si>
+    <t>Several metrics which can be
+used to determine how well the output of object detection algorithms matches the ground truth. The objects considered
+here are compact objects - those that can be covered by simple bounding shapes. This allows inexpensive ground-truthing.</t>
+  </si>
+  <si>
+    <t>Several (seven) matrics to measure all the different aspects of performance.</t>
+  </si>
+  <si>
+    <t>1291 video key frames
+ground-truthed at UMD (University of Maryland) using the ViPER Ground Truthing Tool.</t>
+  </si>
+  <si>
+    <t>1. Algorithm parameters can be optimized for a particular
+set of metrics.                2.The performance of an algorithm for different kinds of
+data can be compared. 3. Quantitative comparison of different detection algorithms
+is possible.
+4. In the course of an algorithm’s development, any performance improvement can be measured.
+5.Tradeoffs between performance aspects can be determined.</t>
+  </si>
+  <si>
+    <t>obj005</t>
+  </si>
+  <si>
+    <t>Object Detection With Deep Learning: A Review</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> They focus on typical generic object detection architectures along with some modiﬁcations and useful tricks to improve detection performance further</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> As distinct speciﬁc detection tasks exhibit different characteristics, they brieﬂy survey several speciﬁc tasks, including salient object detection, face detection, and pedestrian detection. Experimental analyses are also provided to compare various methods and draw some meaningful conclusions. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CNN, Faster R-CNN, YOLO </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PASCAL VOC 2007/2012,   Microsoft COCO</t>
+  </si>
+  <si>
+    <t>obj011</t>
+  </si>
+  <si>
+    <t>Performance Evaluation of Object Detection Algorithms for Video Surveillance</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> They proposed novel methods to evaluate the performance of object detection algorithms in video sequences. This procedure allows us to highlight characteristics (e.g., region splitting or merging) which are speciﬁc of the method being used.</t>
+  </si>
+  <si>
+    <t>Two approaches have been recently considered to characterize the performance of video segmentation algorithms: pixel-based methods, template based methods and object-based methods.</t>
+  </si>
+  <si>
+    <t>Pixel-based methods, Template based methods and Object-based methods.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lehigh Omnidirectional Tracking System (LOTS), (MGM—multiple Gaussian model),  basic background subtraction (BBS) , SGM—single Gaussian model</t>
+  </si>
+  <si>
+    <t>obj031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A REVIEW ON IMAGE SEGMENTATION TECHNIQUES </t>
+  </si>
+  <si>
+    <t xml:space="preserve">This paper reviews and summarizes some existing methods of segmentation. Neural network model based algorithms seem to be very promising as they can generate output in real time. Moreover, these algorithms are robust also.  </t>
+  </si>
+  <si>
+    <t>Relaxation, MRF based approaches, Neural network based approaches</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fuzzy thresholding, Fuzzy clustering, Fuzzy edge detection   </t>
+  </si>
+  <si>
+    <t>These algorithms are robust.</t>
+  </si>
+  <si>
+    <t>obj037</t>
+  </si>
+  <si>
+    <t>Real-Time Visual Concept Classiﬁcation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This paper presented an evaluation of fast Bag-of-Words components to accelerate visual concept classiﬁcation. We presented results on the Pascal dataset and validated them on the MediaMill Challenge and 15 Natural Scenes databases. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> We use the Bag-ofWords algorithm that in the 2008 benchmarks of TRECVID and PASCAL lead to the best performance scores. We divide the evaluation in three steps: 1) Descriptor Extraction, where we evaluate SIFT, SURF, DAISY, and Semantic Textons. 2) Visual Word Assignment, where we compare a k-means visual vocabulary with a Random Forest and evaluate subsampling, dimension reduction with PCA, and division strategies of the Spatial Pyramid. 3) Classiﬁcation, where we evaluate the , RBF, and Fast Histogram Intersection kernel for the SVM. Apart from the evaluation, we acceleratethe calculation ofdensely sampled SIFTandSURF, accelerate nearest neighbor assignment, and improve accuracy of the HistogramIntersectionkernel. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bag-of-Words, Visual Word Assignment, Support vector machines, Graphics Processing Unit, Descriptor Extraction, Visual Word Assignment  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Descriptor Extraction,  Visual Word, MediaMill Challenge</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -96,16 +237,87 @@
       <color rgb="FF000000"/>
       <name val="Times-Roman"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="'Arial'"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF999999"/>
+        <bgColor rgb="FF999999"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4A86E8"/>
+        <bgColor rgb="FF4A86E8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF9900"/>
+        <bgColor rgb="FFFF9900"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FF00"/>
+        <bgColor rgb="FF00FF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF3D85C6"/>
+        <bgColor rgb="FF3D85C6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9900FF"/>
+        <bgColor rgb="FF9900FF"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -113,18 +325,86 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -404,45 +684,200 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="D3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:XFD7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="3" max="4" width="8.88671875" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" style="21" customWidth="1"/>
+    <col min="2" max="2" width="23.33203125" customWidth="1"/>
+    <col min="3" max="3" width="31.21875" customWidth="1"/>
+    <col min="4" max="4" width="29.44140625" customWidth="1"/>
+    <col min="5" max="5" width="28.6640625" customWidth="1"/>
+    <col min="6" max="6" width="29.6640625" customWidth="1"/>
+    <col min="7" max="7" width="25.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="4:4">
-      <c r="D3" s="1"/>
+    <row r="1" spans="1:7">
+      <c r="A1" s="4" t="str">
+        <f>CONCATENATE("Total: ",COUNTA(A9:A23))</f>
+        <v>Total: 0</v>
+      </c>
+      <c r="B1" s="13" t="str">
+        <f>CONCATENATE("Completed: ",COUNTA(D9:D23))</f>
+        <v>Completed: 0</v>
+      </c>
+      <c r="C1" s="13" t="str">
+        <f>CONCATENATE("Rest :",COUNTA(A9:A23)-COUNTA(D9:D23))</f>
+        <v>Rest :0</v>
+      </c>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+    </row>
+    <row r="2" spans="1:7" ht="54" customHeight="1">
+      <c r="A2" s="6"/>
+      <c r="B2" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="22.2" customHeight="1">
+      <c r="A3" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="20" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="82.2" customHeight="1">
+      <c r="A4" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="12"/>
+    </row>
+    <row r="5" spans="1:7" ht="61.2" customHeight="1">
+      <c r="A5" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="G5" s="12"/>
+    </row>
+    <row r="6" spans="1:7" ht="64.8" customHeight="1">
+      <c r="A6" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="52.2" customHeight="1">
+      <c r="A7" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="57" customHeight="1">
+      <c r="A8" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="G8" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="B5:C5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col min="2" max="2" width="8.88671875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="5" spans="2:3">
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -458,7 +893,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B2:K16"/>
   <sheetViews>
@@ -469,7 +904,7 @@
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="2" max="3" width="8.88671875" customWidth="1"/>
-    <col min="4" max="4" width="8.88671875" style="3"/>
+    <col min="4" max="4" width="8.88671875" style="2"/>
     <col min="5" max="5" width="8.88671875" customWidth="1"/>
     <col min="9" max="10" width="8.88671875" customWidth="1"/>
   </cols>
@@ -481,13 +916,13 @@
       <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E2" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="I2" t="s">
@@ -504,13 +939,13 @@
       <c r="C3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E3" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>5</v>
       </c>
       <c r="I3" t="s">
@@ -524,23 +959,23 @@
       </c>
     </row>
     <row r="12" spans="2:11">
-      <c r="E12" s="4"/>
+      <c r="E12" s="3"/>
     </row>
     <row r="13" spans="2:11">
-      <c r="E13" s="4"/>
+      <c r="E13" s="3"/>
     </row>
     <row r="15" spans="2:11">
-      <c r="E15" s="4"/>
+      <c r="E15" s="3"/>
     </row>
     <row r="16" spans="2:11">
-      <c r="E16" s="4"/>
+      <c r="E16" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="B4:B11"/>
   <sheetViews>
@@ -549,28 +984,28 @@
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="4" spans="2:2">
-      <c r="B4" s="2"/>
+      <c r="B4" s="1"/>
     </row>
     <row r="5" spans="2:2">
-      <c r="B5" s="2"/>
+      <c r="B5" s="1"/>
     </row>
     <row r="6" spans="2:2">
-      <c r="B6" s="2"/>
+      <c r="B6" s="1"/>
     </row>
     <row r="7" spans="2:2">
-      <c r="B7" s="2"/>
+      <c r="B7" s="1"/>
     </row>
     <row r="8" spans="2:2">
-      <c r="B8" s="2"/>
+      <c r="B8" s="1"/>
     </row>
     <row r="9" spans="2:2">
-      <c r="B9" s="2"/>
+      <c r="B9" s="1"/>
     </row>
     <row r="10" spans="2:2">
-      <c r="B10" s="2"/>
+      <c r="B10" s="1"/>
     </row>
     <row r="11" spans="2:2">
-      <c r="B11" s="2"/>
+      <c r="B11" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/group_5_review_notes.xlsx
+++ b/group_5_review_notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RAFEE\Documents\GitHub\Project-350\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E2DA3DC-D216-4543-AF4B-A174C6CBEEF4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{933B1D64-20D1-4B4E-BDA1-403661E61EC5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="862" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -688,7 +688,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD7"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -846,7 +846,7 @@
         <v>49</v>
       </c>
       <c r="F7" s="12"/>
-      <c r="G7" s="12" t="s">
+      <c r="G7" s="5" t="s">
         <v>50</v>
       </c>
     </row>

--- a/group_5_review_notes.xlsx
+++ b/group_5_review_notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RAFEE\Documents\GitHub\Project-350\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{933B1D64-20D1-4B4E-BDA1-403661E61EC5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32A5FBDC-5A85-4F4A-9AEC-774F1D2C7592}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="862" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="59">
   <si>
     <t>revsim007</t>
   </si>
@@ -217,6 +217,12 @@
   </si>
   <si>
     <t xml:space="preserve"> Descriptor Extraction,  Visual Word, MediaMill Challenge</t>
+  </si>
+  <si>
+    <t>obj004</t>
+  </si>
+  <si>
+    <t>Recent methods and databases in vision-based hand gesture recognition: A review</t>
   </si>
 </sst>
 </file>
@@ -261,18 +267,12 @@
       <name val="'Arial'"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -317,7 +317,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -340,6 +340,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -351,24 +362,21 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -378,32 +386,35 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -688,12 +699,13 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" style="21" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" style="19" customWidth="1"/>
     <col min="2" max="2" width="23.33203125" customWidth="1"/>
     <col min="3" max="3" width="31.21875" customWidth="1"/>
     <col min="4" max="4" width="29.44140625" customWidth="1"/>
@@ -702,174 +714,164 @@
     <col min="7" max="7" width="25.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="4" t="str">
-        <f>CONCATENATE("Total: ",COUNTA(A9:A23))</f>
-        <v>Total: 0</v>
-      </c>
-      <c r="B1" s="13" t="str">
-        <f>CONCATENATE("Completed: ",COUNTA(D9:D23))</f>
-        <v>Completed: 0</v>
-      </c>
-      <c r="C1" s="13" t="str">
-        <f>CONCATENATE("Rest :",COUNTA(A9:A23)-COUNTA(D9:D23))</f>
-        <v>Rest :0</v>
-      </c>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-    </row>
-    <row r="2" spans="1:7" ht="54" customHeight="1">
-      <c r="A2" s="6"/>
-      <c r="B2" s="14" t="s">
+    <row r="1" spans="1:7" ht="54" customHeight="1">
+      <c r="A1" s="5"/>
+      <c r="B1" s="12" t="s">
         <v>13</v>
       </c>
+      <c r="C1" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="22.2" customHeight="1">
+      <c r="A2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>20</v>
+      </c>
       <c r="C2" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="22.2" customHeight="1">
-      <c r="A3" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D2" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E2" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="19" t="s">
+      <c r="F2" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="20" t="s">
+      <c r="G2" s="18" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="82.2" customHeight="1">
-      <c r="A4" s="10" t="s">
+    <row r="3" spans="1:7" ht="82.2" customHeight="1">
+      <c r="A3" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C3" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D3" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F3" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="G4" s="12"/>
-    </row>
-    <row r="5" spans="1:7" ht="61.2" customHeight="1">
+      <c r="G3" s="11"/>
+    </row>
+    <row r="4" spans="1:7" ht="61.2" customHeight="1">
+      <c r="A4" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="G4" s="11"/>
+    </row>
+    <row r="5" spans="1:7" ht="64.8" customHeight="1">
       <c r="A5" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="G5" s="12"/>
-    </row>
-    <row r="6" spans="1:7" ht="64.8" customHeight="1">
-      <c r="A6" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C5" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D5" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E5" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="F5" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="G6" s="12" t="s">
+      <c r="G5" s="11" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="52.2" customHeight="1">
-      <c r="A7" s="10" t="s">
+    <row r="6" spans="1:7" ht="52.2" customHeight="1">
+      <c r="A6" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C6" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D6" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E6" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="F7" s="12"/>
-      <c r="G7" s="5" t="s">
+      <c r="F6" s="11"/>
+      <c r="G6" s="4" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="57" customHeight="1">
-      <c r="A8" s="10" t="s">
+    <row r="7" spans="1:7" ht="57" customHeight="1">
+      <c r="A7" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C7" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D7" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E7" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="F8" s="12" t="s">
+      <c r="F7" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="G8" s="12"/>
+      <c r="G7" s="11"/>
+    </row>
+    <row r="8" spans="1:7" ht="52.8">
+      <c r="A8" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>58</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/group_5_review_notes.xlsx
+++ b/group_5_review_notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RAFEE\Documents\GitHub\Project-350\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32A5FBDC-5A85-4F4A-9AEC-774F1D2C7592}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{238FD0A8-88C0-43E7-8979-9E590531033D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="862" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="68">
   <si>
     <t>revsim007</t>
   </si>
@@ -223,6 +223,33 @@
   </si>
   <si>
     <t>Recent methods and databases in vision-based hand gesture recognition: A review</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> They provide a review of vision-based hand gesture recognition algorithms reported in the last 16 years.  Quantitative comparison of algorithms is done using a set of 13 measures chosen from different attributes of the algorithm. </t>
+  </si>
+  <si>
+    <t>RGB sensor based methods, RGB-D sensor based methods.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 26 hand gesture databases. </t>
+  </si>
+  <si>
+    <t>0bj033</t>
+  </si>
+  <si>
+    <t>…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Edge based, Threshold based, Region </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Edge based, Threshold based, Region based, Special theory </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The goal of image segmentation is to cluster pixels into salient image regions corresponding to individual surfaces, objects, or natural parts of objects. This paper provides a review on the various image segmentation techniques proposed in the literature. </t>
+  </si>
+  <si>
+    <t>A single segmentation method cannot be well applicable for different types of images. Thus the development of an effective image segmentation technique for partitioning all categorizes images is a challenging issue in image processing.</t>
   </si>
 </sst>
 </file>
@@ -355,7 +382,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -415,6 +442,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -696,11 +729,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -758,120 +791,156 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="82.2" customHeight="1">
-      <c r="A3" s="9" t="s">
+    <row r="3" spans="1:7" ht="92.4">
+      <c r="A3" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="F3" s="20" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="82.2" customHeight="1">
+      <c r="A4" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B4" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C4" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D4" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E4" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="G3" s="11"/>
-    </row>
-    <row r="4" spans="1:7" ht="61.2" customHeight="1">
-      <c r="A4" s="9" t="s">
+      <c r="G4" s="11"/>
+    </row>
+    <row r="5" spans="1:7" ht="61.2" customHeight="1">
+      <c r="A5" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B5" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C5" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D5" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E5" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F5" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="11"/>
-    </row>
-    <row r="5" spans="1:7" ht="64.8" customHeight="1">
-      <c r="A5" s="10" t="s">
+      <c r="G5" s="11"/>
+    </row>
+    <row r="6" spans="1:7" ht="64.8" customHeight="1">
+      <c r="A6" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B6" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C6" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D6" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E6" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F6" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="G6" s="11" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="52.2" customHeight="1">
-      <c r="A6" s="9" t="s">
+    <row r="7" spans="1:7" ht="52.2" customHeight="1">
+      <c r="A7" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B7" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C7" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D7" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E7" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="F6" s="11"/>
-      <c r="G6" s="4" t="s">
+      <c r="F7" s="11"/>
+      <c r="G7" s="4" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="57" customHeight="1">
-      <c r="A7" s="9" t="s">
+    <row r="8" spans="1:7" s="21" customFormat="1" ht="115.2">
+      <c r="A8" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="E8" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="F8" s="21" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="57" customHeight="1">
+      <c r="A9" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B9" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C9" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D9" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E9" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="F9" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="G7" s="11"/>
-    </row>
-    <row r="8" spans="1:7" ht="52.8">
-      <c r="A8" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="B8" s="20" t="s">
-        <v>58</v>
-      </c>
+      <c r="G9" s="11"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="21"/>
+      <c r="B10" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/group_5_review_notes.xlsx
+++ b/group_5_review_notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RAFEE\Documents\GitHub\Project-350\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{238FD0A8-88C0-43E7-8979-9E590531033D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E0DC884-E4E9-45F0-A4B7-6A6D3A19A53B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="862" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="79">
   <si>
     <t>revsim007</t>
   </si>
@@ -250,6 +250,39 @@
   </si>
   <si>
     <t>A single segmentation method cannot be well applicable for different types of images. Thus the development of an effective image segmentation technique for partitioning all categorizes images is a challenging issue in image processing.</t>
+  </si>
+  <si>
+    <t>obj015</t>
+  </si>
+  <si>
+    <t>A Classified and Comparative Study of Edge Detection Algorithms</t>
+  </si>
+  <si>
+    <t>Since edge detection is in the forefront of image processing for object detection, it is crucial to have a good understanding of edge detection algorithms. This paper introduces a new classification of most important and commonly used edge detection algorithms, namely ISEF, Canny, Marr-Hildreth, Sobel, Kirsch, Lapla1 and Lapla2</t>
+  </si>
+  <si>
+    <t>ISEF, Canny, Marr-Hildreth, Sobel, Kirsch, Lapla1 and Lapla2</t>
+  </si>
+  <si>
+    <t>The importance of the classification is that it simplifies several problems in Artificial Vision and Image Processing, by associating specific processing rules to each type of edges. The Classification that we introduce in this paper is based on the behavioral study of  edges.</t>
+  </si>
+  <si>
+    <t>obj017</t>
+  </si>
+  <si>
+    <t>Detecting Faces in Images: A Survey</t>
+  </si>
+  <si>
+    <t>Images containing faces are essential to intelligent vision-based human computer interaction, and research efforts in face processing include face recognition, face tracking, pose estimation, and expression recognition.  To build fully automated systems that analyze the information contained in face images, robust and efficient face detection algorithms are required. Numerous techniques have been developed to detect faces in a single image, and the purpose of this paper is to categorize and evaluate these algorithms.</t>
+  </si>
+  <si>
+    <t>Knowledge-based methods, Feature invariant approaches, Template matching methods, Appearance-based methods.</t>
+  </si>
+  <si>
+    <t>MIT Test set, CMU Test set, CMU Profile Face Test set, Kodak Data set.</t>
+  </si>
+  <si>
+    <t>This paper attempts to provide a comprehensive survey of research on face detection and to provide some structural categories for the methods described in over 150 papers.  They discuss relevant issues such as data collection, evaluation metrics, and benchmarking.</t>
   </si>
 </sst>
 </file>
@@ -344,7 +377,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -378,11 +411,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -448,6 +490,15 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -729,11 +780,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
+      <selection pane="bottomLeft" activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -876,71 +927,111 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="52.2" customHeight="1">
-      <c r="A7" s="9" t="s">
+    <row r="7" spans="1:7" s="25" customFormat="1" ht="84.6" customHeight="1">
+      <c r="A7" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="D7" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="E7" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="F7" s="22" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="80.400000000000006" customHeight="1">
+      <c r="A8" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="E8" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="F8" s="22" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="52.2" customHeight="1">
+      <c r="A9" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B9" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C9" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D9" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E9" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="F7" s="11"/>
-      <c r="G7" s="4" t="s">
+      <c r="F9" s="11"/>
+      <c r="G9" s="4" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="21" customFormat="1" ht="115.2">
-      <c r="A8" s="21" t="s">
+    <row r="10" spans="1:7" s="21" customFormat="1" ht="63.6" customHeight="1">
+      <c r="A10" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B10" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="C8" s="23" t="s">
+      <c r="C10" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="D8" s="22" t="s">
+      <c r="D10" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="E8" s="22" t="s">
+      <c r="E10" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="F8" s="21" t="s">
+      <c r="F10" s="21" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="57" customHeight="1">
-      <c r="A9" s="9" t="s">
+    <row r="11" spans="1:7" ht="57" customHeight="1">
+      <c r="A11" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B11" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C11" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D11" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="E11" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F11" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="G9" s="11"/>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="21"/>
-      <c r="B10" s="20"/>
+      <c r="G11" s="11"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="21"/>
+      <c r="B12" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/group_5_review_notes.xlsx
+++ b/group_5_review_notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RAFEE\Documents\GitHub\Project-350\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E0DC884-E4E9-45F0-A4B7-6A6D3A19A53B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{089D3B14-F893-4DF5-B60D-501E5C2D20E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="862" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -289,7 +289,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -322,9 +322,16 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="'Arial'"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="9">
@@ -424,7 +431,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -446,12 +453,6 @@
     <xf numFmtId="49" fontId="2" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -476,29 +477,36 @@
     <xf numFmtId="49" fontId="2" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -783,33 +791,34 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C20" sqref="C20"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" style="19" customWidth="1"/>
-    <col min="2" max="2" width="23.33203125" customWidth="1"/>
-    <col min="3" max="3" width="31.21875" customWidth="1"/>
-    <col min="4" max="4" width="29.44140625" customWidth="1"/>
-    <col min="5" max="5" width="28.6640625" customWidth="1"/>
-    <col min="6" max="6" width="29.6640625" customWidth="1"/>
-    <col min="7" max="7" width="25.33203125" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" style="27" customWidth="1"/>
+    <col min="2" max="2" width="23.33203125" style="21" customWidth="1"/>
+    <col min="3" max="3" width="31.21875" style="21" customWidth="1"/>
+    <col min="4" max="4" width="29.44140625" style="21" customWidth="1"/>
+    <col min="5" max="5" width="28.6640625" style="21" customWidth="1"/>
+    <col min="6" max="6" width="29.6640625" style="21" customWidth="1"/>
+    <col min="7" max="7" width="25.33203125" style="21" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="21"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="54" customHeight="1">
       <c r="A1" s="5"/>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="12" t="s">
         <v>16</v>
       </c>
       <c r="F1" s="7" t="s">
@@ -823,47 +832,47 @@
       <c r="A2" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="F2" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="16" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="92.4">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="E3" s="20" t="s">
+      <c r="E3" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="F3" s="20" t="s">
+      <c r="F3" s="17" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="82.2" customHeight="1">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="20" t="s">
         <v>33</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -872,7 +881,7 @@
       <c r="C4" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="9" t="s">
         <v>36</v>
       </c>
       <c r="E4" s="4" t="s">
@@ -881,40 +890,40 @@
       <c r="F4" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="G4" s="11"/>
+      <c r="G4" s="9"/>
     </row>
     <row r="5" spans="1:7" ht="61.2" customHeight="1">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="20" t="s">
         <v>39</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="9" t="s">
         <v>42</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="G5" s="11"/>
+      <c r="G5" s="9"/>
     </row>
     <row r="6" spans="1:7" ht="64.8" customHeight="1">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="22" t="s">
         <v>26</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="9" t="s">
         <v>29</v>
       </c>
       <c r="E6" s="4" t="s">
@@ -923,115 +932,115 @@
       <c r="F6" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="G6" s="11" t="s">
+      <c r="G6" s="9" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="25" customFormat="1" ht="84.6" customHeight="1">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="C7" s="24" t="s">
+      <c r="C7" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="D7" s="26" t="s">
+      <c r="D7" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="E7" s="22" t="s">
+      <c r="E7" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="F7" s="22" t="s">
+      <c r="F7" s="23" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="80.400000000000006" customHeight="1">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="C8" s="24" t="s">
+      <c r="C8" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="D8" s="22" t="s">
+      <c r="D8" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="E8" s="22" t="s">
+      <c r="E8" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="F8" s="22" t="s">
+      <c r="F8" s="23" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="52.2" customHeight="1">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="20" t="s">
         <v>45</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="9" t="s">
         <v>48</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="F9" s="11"/>
+      <c r="F9" s="9"/>
       <c r="G9" s="4" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="21" customFormat="1" ht="63.6" customHeight="1">
-      <c r="A10" s="21" t="s">
+    <row r="10" spans="1:7" s="19" customFormat="1" ht="63.6" customHeight="1">
+      <c r="A10" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="C10" s="23" t="s">
+      <c r="C10" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="D10" s="22" t="s">
+      <c r="D10" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="E10" s="22" t="s">
+      <c r="E10" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="F10" s="21" t="s">
+      <c r="F10" s="19" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="57" customHeight="1">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="20" t="s">
         <v>51</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="E11" s="9" t="s">
         <v>55</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="G11" s="11"/>
+      <c r="G11" s="9"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="21"/>
-      <c r="B12" s="20"/>
+      <c r="A12" s="19"/>
+      <c r="B12" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/group_5_review_notes.xlsx
+++ b/group_5_review_notes.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RAFEE\Documents\GitHub\Project-350\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Project-350\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{089D3B14-F893-4DF5-B60D-501E5C2D20E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{158FFE7C-96F4-48CE-AAB7-3A8798E7645B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="862" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="862" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="review_papers" sheetId="3" r:id="rId1"/>
@@ -289,7 +289,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -299,42 +299,55 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Times-Roman"/>
     </font>
     <font>
       <b/>
-      <sz val="10"/>
-      <name val="Arial"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="10"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -383,6 +396,11 @@
         <bgColor rgb="FF9900FF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="4">
     <border>
@@ -409,107 +427,120 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top/>
-      <bottom/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Calculation" xfId="1" builtinId="22"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -788,259 +819,292 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" style="27" customWidth="1"/>
-    <col min="2" max="2" width="23.33203125" style="21" customWidth="1"/>
-    <col min="3" max="3" width="31.21875" style="21" customWidth="1"/>
-    <col min="4" max="4" width="29.44140625" style="21" customWidth="1"/>
-    <col min="5" max="5" width="28.6640625" style="21" customWidth="1"/>
-    <col min="6" max="6" width="29.6640625" style="21" customWidth="1"/>
-    <col min="7" max="7" width="25.33203125" style="21" customWidth="1"/>
-    <col min="8" max="16384" width="8.88671875" style="21"/>
+    <col min="1" max="1" width="11.33203125" style="7" customWidth="1"/>
+    <col min="2" max="2" width="23.33203125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="31.21875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="29.44140625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="28.6640625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="29.6640625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="25.33203125" style="4" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="54" customHeight="1">
-      <c r="A1" s="5"/>
-      <c r="B1" s="10" t="s">
+      <c r="A1" s="8"/>
+      <c r="B1" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="11" t="s">
         <v>15</v>
       </c>
       <c r="E1" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="14" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="22.2" customHeight="1">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:7" s="5" customFormat="1" ht="22.2" customHeight="1">
+      <c r="A2" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="F2" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="G2" s="24" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="92.4">
-      <c r="A3" s="19" t="s">
+    <row r="3" spans="1:7" s="6" customFormat="1" ht="60" customHeight="1">
+      <c r="A3" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="F3" s="17" t="s">
+      <c r="F3" s="25" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="82.2" customHeight="1">
-      <c r="A4" s="20" t="s">
+      <c r="G3" s="15"/>
+    </row>
+    <row r="4" spans="1:7" s="6" customFormat="1" ht="60" customHeight="1">
+      <c r="A4" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="G4" s="9"/>
-    </row>
-    <row r="5" spans="1:7" ht="61.2" customHeight="1">
-      <c r="A5" s="20" t="s">
+      <c r="G4" s="27"/>
+    </row>
+    <row r="5" spans="1:7" s="6" customFormat="1" ht="60" customHeight="1">
+      <c r="A5" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="G5" s="9"/>
-    </row>
-    <row r="6" spans="1:7" ht="64.8" customHeight="1">
-      <c r="A6" s="22" t="s">
+      <c r="G5" s="27"/>
+    </row>
+    <row r="6" spans="1:7" s="6" customFormat="1" ht="60" customHeight="1">
+      <c r="A6" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="G6" s="27" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="25" customFormat="1" ht="84.6" customHeight="1">
-      <c r="A7" s="23" t="s">
+    <row r="7" spans="1:7" s="6" customFormat="1" ht="60" customHeight="1">
+      <c r="A7" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="D7" s="24" t="s">
+      <c r="D7" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="E7" s="23" t="s">
+      <c r="E7" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="F7" s="23" t="s">
+      <c r="F7" s="15" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" ht="80.400000000000006" customHeight="1">
-      <c r="A8" s="23" t="s">
+      <c r="G7" s="15"/>
+    </row>
+    <row r="8" spans="1:7" s="6" customFormat="1" ht="60" customHeight="1">
+      <c r="A8" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="D8" s="23" t="s">
+      <c r="D8" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="E8" s="23" t="s">
+      <c r="E8" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="F8" s="23" t="s">
+      <c r="F8" s="15" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" ht="52.2" customHeight="1">
-      <c r="A9" s="20" t="s">
+      <c r="G8" s="15"/>
+    </row>
+    <row r="9" spans="1:7" s="6" customFormat="1" ht="60" customHeight="1">
+      <c r="A9" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="F9" s="9"/>
-      <c r="G9" s="4" t="s">
+      <c r="F9" s="27"/>
+      <c r="G9" s="27" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="19" customFormat="1" ht="63.6" customHeight="1">
-      <c r="A10" s="19" t="s">
+    <row r="10" spans="1:7" s="6" customFormat="1" ht="60" customHeight="1">
+      <c r="A10" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="C10" s="26" t="s">
+      <c r="C10" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="D10" s="23" t="s">
+      <c r="D10" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="E10" s="23" t="s">
+      <c r="E10" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="F10" s="19" t="s">
+      <c r="F10" s="15" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" ht="57" customHeight="1">
-      <c r="A11" s="20" t="s">
+      <c r="G10" s="15"/>
+    </row>
+    <row r="11" spans="1:7" s="6" customFormat="1" ht="60" customHeight="1">
+      <c r="A11" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E11" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F11" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="G11" s="9"/>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="19"/>
-      <c r="B12" s="17"/>
+      <c r="G11" s="27"/>
+    </row>
+    <row r="12" spans="1:7" s="6" customFormat="1" ht="60" customHeight="1">
+      <c r="A12" s="16"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+    </row>
+    <row r="13" spans="1:7" s="6" customFormat="1" ht="60" customHeight="1">
+      <c r="A13" s="5"/>
+    </row>
+    <row r="14" spans="1:7" s="6" customFormat="1" ht="60" customHeight="1">
+      <c r="A14" s="5"/>
+    </row>
+    <row r="15" spans="1:7" s="6" customFormat="1" ht="60" customHeight="1">
+      <c r="A15" s="5"/>
+    </row>
+    <row r="16" spans="1:7" s="6" customFormat="1" ht="60" customHeight="1">
+      <c r="A16" s="5"/>
+    </row>
+    <row r="17" spans="1:1" s="6" customFormat="1" ht="60" customHeight="1">
+      <c r="A17" s="5"/>
+    </row>
+    <row r="18" spans="1:1" s="6" customFormat="1" ht="60" customHeight="1">
+      <c r="A18" s="5"/>
+    </row>
+    <row r="19" spans="1:1" s="6" customFormat="1" ht="60" customHeight="1">
+      <c r="A19" s="5"/>
+    </row>
+    <row r="20" spans="1:1" s="6" customFormat="1" ht="60" customHeight="1">
+      <c r="A20" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/group_5_review_notes.xlsx
+++ b/group_5_review_notes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Project-350\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RAFEE\Documents\GitHub\Project-350\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{158FFE7C-96F4-48CE-AAB7-3A8798E7645B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8B5CD9C-CF0C-4B1F-AAFC-00E24C169F4B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="862" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="862" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="review_papers" sheetId="3" r:id="rId1"/>
@@ -458,7 +458,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -536,6 +536,12 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -822,8 +828,8 @@
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -892,13 +898,13 @@
       <c r="C3" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="D3" s="25" t="s">
+      <c r="D3" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="E3" s="25" t="s">
+      <c r="E3" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="F3" s="25" t="s">
+      <c r="F3" s="29" t="s">
         <v>61</v>
       </c>
       <c r="G3" s="15"/>
@@ -916,10 +922,10 @@
       <c r="D4" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="E4" s="27" t="s">
+      <c r="E4" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="F4" s="27" t="s">
+      <c r="F4" s="30" t="s">
         <v>38</v>
       </c>
       <c r="G4" s="27"/>
@@ -1005,7 +1011,7 @@
       <c r="E8" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="F8" s="15" t="s">
+      <c r="F8" s="16" t="s">
         <v>77</v>
       </c>
       <c r="G8" s="15"/>
@@ -1068,7 +1074,7 @@
       <c r="E11" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="F11" s="27" t="s">
+      <c r="F11" s="30" t="s">
         <v>56</v>
       </c>
       <c r="G11" s="27"/>

--- a/group_5_review_notes.xlsx
+++ b/group_5_review_notes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RAFEE\Documents\GitHub\Project-350\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8B5CD9C-CF0C-4B1F-AAFC-00E24C169F4B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE2E2FB7-B5F5-4BD9-8796-799D84684E60}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="862" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11268" yWindow="3432" windowWidth="8892" windowHeight="8784" tabRatio="862" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="review_papers" sheetId="3" r:id="rId1"/>
@@ -26,7 +26,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="90">
   <si>
     <t>revsim007</t>
   </si>
@@ -283,6 +285,39 @@
   </si>
   <si>
     <t>This paper attempts to provide a comprehensive survey of research on face detection and to provide some structural categories for the methods described in over 150 papers.  They discuss relevant issues such as data collection, evaluation metrics, and benchmarking.</t>
+  </si>
+  <si>
+    <t>Fig-1</t>
+  </si>
+  <si>
+    <t>Fig-2</t>
+  </si>
+  <si>
+    <t>Fig-3</t>
+  </si>
+  <si>
+    <t>Fig-4</t>
+  </si>
+  <si>
+    <t>Fig-5</t>
+  </si>
+  <si>
+    <t>obj033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     ---&gt;</t>
+  </si>
+  <si>
+    <t>Fig-6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      ---&gt;</t>
+  </si>
+  <si>
+    <t>table-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     </t>
   </si>
 </sst>
 </file>
@@ -827,9 +862,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F11" sqref="F11"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1120,16 +1155,56 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="B3:I5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="2" max="2" width="8.88671875" customWidth="1"/>
     <col min="6" max="6" width="8.88671875" customWidth="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="3" spans="2:9">
+      <c r="B3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F3" t="s">
+        <v>81</v>
+      </c>
+      <c r="G3" t="s">
+        <v>82</v>
+      </c>
+      <c r="H3" t="s">
+        <v>83</v>
+      </c>
+      <c r="I3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9">
+      <c r="B5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1138,8 +1213,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B2:K16"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1197,6 +1272,22 @@
       </c>
       <c r="K3" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11">
+      <c r="B6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11">
+      <c r="C8" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="12" spans="2:11">
